--- a/data/GuestUserPartyOrderPayAtRestaurant.xlsx
+++ b/data/GuestUserPartyOrderPayAtRestaurant.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Scottsdale, AZ, United States</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>2</t>
@@ -319,7 +316,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -392,41 +389,41 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="7" t="str">
         <f aca="false">TEXT(D2,"mmmm d")</f>
         <v>March 3</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
